--- a/analyses/inputs/template2019.xlsx
+++ b/analyses/inputs/template2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C236D4CD-AEE2-45AC-A82D-9CADB621665F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6025CA60-6009-4052-A831-A196EA5DCB8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="-18270" windowWidth="29040" windowHeight="17640" tabRatio="961" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17196" yWindow="-13068" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="9" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="272">
   <si>
     <t>year</t>
   </si>
@@ -1234,7 +1234,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -6202,18 +6202,18 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.6640625" style="12" customWidth="1"/>
     <col min="2" max="2" width="38.6640625" style="16" customWidth="1"/>
     <col min="3" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.05" customHeight="1">
+    <row r="1" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -6224,14 +6224,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.05" customHeight="1">
+    <row r="2" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>193</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="16.05" customHeight="1">
+    <row r="3" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>195</v>
@@ -6240,7 +6240,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.05" customHeight="1">
+    <row r="4" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>194</v>
@@ -6249,93 +6249,93 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.05" customHeight="1">
+    <row r="5" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>208</v>
       </c>
       <c r="C7" s="71"/>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>106</v>
       </c>
       <c r="C8" s="66"/>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>107</v>
       </c>
       <c r="C9" s="67"/>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>105</v>
       </c>
       <c r="C10" s="67"/>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>108</v>
       </c>
       <c r="C11" s="66"/>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>109</v>
       </c>
       <c r="C12" s="66"/>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>110</v>
       </c>
       <c r="C13" s="66"/>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>94</v>
       </c>
       <c r="C16" s="67"/>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>95</v>
       </c>
       <c r="C17" s="67"/>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>96</v>
       </c>
       <c r="C18" s="67"/>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
         <v>97</v>
       </c>
       <c r="C19" s="67"/>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>98</v>
       </c>
@@ -6344,74 +6344,74 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="20" t="s">
         <v>101</v>
       </c>
       <c r="C23" s="67"/>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="20" t="s">
         <v>102</v>
       </c>
       <c r="C24" s="67"/>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="20" t="s">
         <v>103</v>
       </c>
       <c r="C25" s="67"/>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="20" t="s">
         <v>104</v>
       </c>
       <c r="C26" s="67"/>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>199</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="30" t="s">
         <v>75</v>
       </c>
       <c r="C29" s="69"/>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="30" t="s">
         <v>76</v>
       </c>
       <c r="C30" s="69"/>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="30" t="s">
         <v>77</v>
       </c>
       <c r="C31" s="69"/>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="30" t="s">
         <v>78</v>
       </c>
       <c r="C32" s="69"/>
     </row>
-    <row r="33" spans="1:5" ht="13.2">
+    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="32" t="s">
         <v>129</v>
       </c>
@@ -6420,26 +6420,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="42" t="s">
         <v>92</v>
       </c>
       <c r="C37" s="68"/>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="16" t="s">
         <v>91</v>
       </c>
@@ -6447,7 +6447,7 @@
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="s">
         <v>90</v>
       </c>
@@ -6455,48 +6455,48 @@
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
         <v>171</v>
       </c>
       <c r="C40" s="68"/>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="16" t="s">
         <v>89</v>
       </c>
       <c r="C41" s="67"/>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="42" t="s">
         <v>93</v>
       </c>
       <c r="C42" s="68"/>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D44" s="17"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C45" s="67"/>
       <c r="D45" s="17"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C46" s="67"/>
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
         <v>12</v>
       </c>
@@ -6504,7 +6504,7 @@
       <c r="D47" s="17"/>
       <c r="E47" s="18"/>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1">
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="16" t="s">
         <v>26</v>
       </c>
@@ -6515,52 +6515,52 @@
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D49" s="17"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>72</v>
       </c>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
         <v>124</v>
       </c>
       <c r="C51" s="65"/>
       <c r="D51" s="17"/>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="16" t="s">
         <v>125</v>
       </c>
       <c r="C52" s="65"/>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="16" t="s">
         <v>126</v>
       </c>
       <c r="C53" s="65"/>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="16" t="s">
         <v>127</v>
       </c>
       <c r="C54" s="65"/>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="16" t="s">
         <v>128</v>
       </c>
       <c r="C55" s="65"/>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
         <v>111</v>
       </c>
@@ -6568,25 +6568,25 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="16" t="s">
         <v>132</v>
       </c>
       <c r="C59" s="66"/>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="16" t="s">
         <v>270</v>
       </c>
       <c r="C60" s="66"/>
     </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="16" t="s">
         <v>271</v>
       </c>
       <c r="C61" s="66"/>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -6607,10 +6607,10 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="53" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.77734375" style="35" customWidth="1"/>
@@ -6618,7 +6618,7 @@
     <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
         <v>189</v>
       </c>
@@ -6638,7 +6638,7 @@
       </c>
       <c r="C2" s="81"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="88" t="s">
         <v>206</v>
       </c>
@@ -6647,7 +6647,7 @@
       </c>
       <c r="C3" s="81"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="89" t="s">
         <v>58</v>
       </c>
@@ -6656,7 +6656,7 @@
       </c>
       <c r="C4" s="81"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="89" t="s">
         <v>137</v>
       </c>
@@ -6665,104 +6665,108 @@
       </c>
       <c r="C5" s="81"/>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="89"/>
-      <c r="B6" s="87"/>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="89" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="87" t="s">
+        <v>58</v>
+      </c>
       <c r="C6" s="87"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="89"/>
       <c r="B7" s="87"/>
       <c r="C7" s="87"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="89"/>
       <c r="B8" s="87"/>
       <c r="C8" s="87"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="89"/>
       <c r="B9" s="87"/>
       <c r="C9" s="87"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="89"/>
       <c r="B10" s="87"/>
       <c r="C10" s="87"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="90"/>
       <c r="B11" s="87"/>
       <c r="C11" s="87"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="90"/>
       <c r="B12" s="87"/>
       <c r="C12" s="87"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="90"/>
       <c r="B13" s="87"/>
       <c r="C13" s="87"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="90"/>
       <c r="B14" s="87"/>
       <c r="C14" s="87"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="90"/>
       <c r="B15" s="87"/>
       <c r="C15" s="87"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="90"/>
       <c r="B16" s="87"/>
       <c r="C16" s="87"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="90"/>
       <c r="B17" s="87"/>
       <c r="C17" s="87"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="90"/>
       <c r="B18" s="87"/>
       <c r="C18" s="87"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="89"/>
       <c r="B19" s="87"/>
       <c r="C19" s="87"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="89"/>
       <c r="B20" s="87"/>
       <c r="C20" s="87"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="89"/>
       <c r="B21" s="87"/>
       <c r="C21" s="87"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="89"/>
       <c r="B22" s="87"/>
       <c r="C22" s="87"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="87"/>
       <c r="C23" s="87"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" s="87"/>
       <c r="C24" s="87"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="87"/>
       <c r="C25" s="87"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="87"/>
       <c r="C26" s="87"/>
     </row>
@@ -6785,85 +6789,85 @@
       <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.109375" style="35" customWidth="1"/>
     <col min="2" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
@@ -6883,9 +6887,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -6905,7 +6909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
@@ -6930,7 +6934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
@@ -6955,7 +6959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
@@ -6997,7 +7001,7 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.21875" style="56" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.88671875" style="56" bestFit="1" customWidth="1"/>
@@ -7010,7 +7014,7 @@
     <col min="16" max="16384" width="16.109375" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="57" t="s">
         <v>33</v>
       </c>
@@ -7057,7 +7061,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="s">
         <v>31</v>
       </c>
@@ -7104,7 +7108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="53" t="s">
         <v>149</v>
       </c>
@@ -7148,7 +7152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="53" t="s">
         <v>175</v>
       </c>
@@ -7192,7 +7196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="53" t="s">
         <v>174</v>
       </c>
@@ -7236,7 +7240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="53" t="s">
         <v>173</v>
       </c>
@@ -7280,7 +7284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="53" t="s">
         <v>196</v>
       </c>
@@ -7324,7 +7328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="53" t="s">
         <v>136</v>
       </c>
@@ -7368,7 +7372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="53" t="s">
         <v>137</v>
       </c>
@@ -7412,7 +7416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="53" t="s">
         <v>84</v>
       </c>
@@ -7456,7 +7460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="53" t="s">
         <v>58</v>
       </c>
@@ -7500,7 +7504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="53" t="s">
         <v>67</v>
       </c>
@@ -7544,7 +7548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="53" t="s">
         <v>185</v>
       </c>
@@ -7588,7 +7592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="53" t="s">
         <v>28</v>
       </c>
@@ -7632,7 +7636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="53" t="s">
         <v>85</v>
       </c>
@@ -7676,7 +7680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="53" t="s">
         <v>60</v>
       </c>
@@ -7720,7 +7724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="53"/>
       <c r="C17" s="97"/>
       <c r="D17" s="97"/>
@@ -7736,7 +7740,7 @@
       <c r="N17" s="97"/>
       <c r="O17" s="97"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="57" t="s">
         <v>32</v>
       </c>
@@ -7783,7 +7787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="57"/>
       <c r="B19" s="53" t="s">
         <v>86</v>
@@ -7828,7 +7832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="98" t="s">
         <v>189</v>
       </c>
@@ -7872,7 +7876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="98" t="s">
         <v>206</v>
       </c>
@@ -7916,7 +7920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="99" t="s">
         <v>57</v>
       </c>
@@ -7960,7 +7964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="53" t="s">
         <v>88</v>
       </c>
@@ -8004,7 +8008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="53" t="s">
         <v>87</v>
       </c>
@@ -8048,7 +8052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="53" t="s">
         <v>59</v>
       </c>
@@ -8092,7 +8096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="53"/>
       <c r="C26" s="97"/>
       <c r="D26" s="97"/>
@@ -8108,7 +8112,7 @@
       <c r="N26" s="97"/>
       <c r="O26" s="97"/>
     </row>
-    <row r="27" spans="1:16" ht="16.05" customHeight="1">
+    <row r="27" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="57" t="s">
         <v>37</v>
       </c>
@@ -8156,7 +8160,7 @@
       </c>
       <c r="P27" s="100"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="61" t="s">
         <v>190</v>
       </c>
@@ -8200,7 +8204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57"/>
       <c r="B29" s="61" t="s">
         <v>207</v>
@@ -8245,7 +8249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="61" t="s">
         <v>191</v>
       </c>
@@ -8289,7 +8293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="61" t="s">
         <v>192</v>
       </c>
@@ -8333,7 +8337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="53"/>
       <c r="C32" s="101"/>
       <c r="D32" s="101"/>
@@ -8349,7 +8353,7 @@
       <c r="N32" s="97"/>
       <c r="O32" s="97"/>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="57" t="s">
         <v>35</v>
       </c>
@@ -8396,7 +8400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="53" t="s">
         <v>64</v>
       </c>
@@ -8440,7 +8444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="53" t="s">
         <v>62</v>
       </c>
@@ -8484,7 +8488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="53" t="s">
         <v>47</v>
       </c>
@@ -8528,7 +8532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="53" t="s">
         <v>34</v>
       </c>
@@ -8572,7 +8576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="103"/>
       <c r="B38" s="53" t="s">
         <v>83</v>
@@ -8617,7 +8621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1">
+    <row r="39" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="53" t="s">
         <v>82</v>
       </c>
@@ -8661,7 +8665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1">
+    <row r="40" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="53" t="s">
         <v>81</v>
       </c>
@@ -8705,7 +8709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1">
+    <row r="41" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="53" t="s">
         <v>79</v>
       </c>
@@ -8749,7 +8753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1">
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="53" t="s">
         <v>80</v>
       </c>
@@ -8810,7 +8814,7 @@
       <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.77734375" customWidth="1"/>
@@ -8822,7 +8826,7 @@
     <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -8869,7 +8873,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -8920,7 +8924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>149</v>
       </c>
@@ -8964,7 +8968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>196</v>
       </c>
@@ -9008,7 +9012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>136</v>
       </c>
@@ -9054,7 +9058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>137</v>
       </c>
@@ -9101,7 +9105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="33" t="s">
         <v>84</v>
       </c>
@@ -9150,7 +9154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>58</v>
       </c>
@@ -9196,7 +9200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>67</v>
       </c>
@@ -9244,7 +9248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>185</v>
       </c>
@@ -9292,7 +9296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1">
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>28</v>
       </c>
@@ -9336,7 +9340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="33" t="s">
         <v>85</v>
       </c>
@@ -9385,7 +9389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
         <v>60</v>
       </c>
@@ -9429,10 +9433,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="33"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
@@ -9483,7 +9487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>86</v>
@@ -9528,7 +9532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>189</v>
@@ -9577,7 +9581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="11" t="s">
         <v>206</v>
@@ -9626,7 +9630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15" customHeight="1">
+    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="33" t="s">
         <v>57</v>
       </c>
@@ -9674,7 +9678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>88</v>
       </c>
@@ -9718,7 +9722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
         <v>87</v>
       </c>
@@ -9762,7 +9766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="33" t="s">
         <v>59</v>
       </c>
@@ -9810,10 +9814,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="33"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="60" t="s">
         <v>37</v>
       </c>
@@ -9864,7 +9868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="61" t="s">
         <v>190</v>
       </c>
@@ -9912,7 +9916,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="61" t="s">
         <v>207</v>
       </c>
@@ -9960,7 +9964,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="61" t="s">
         <v>191</v>
       </c>
@@ -10008,7 +10012,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="61" t="s">
         <v>192</v>
       </c>
@@ -10053,7 +10057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="11"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -10063,7 +10067,7 @@
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>35</v>
       </c>
@@ -10121,7 +10125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
         <v>64</v>
       </c>
@@ -10176,7 +10180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
         <v>62</v>
       </c>
@@ -10231,7 +10235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
         <v>47</v>
       </c>
@@ -10275,7 +10279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="11" t="s">
         <v>34</v>
       </c>
@@ -10332,7 +10336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="33" t="s">
         <v>83</v>
       </c>
@@ -10376,7 +10380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="33" t="s">
         <v>82</v>
@@ -10421,7 +10425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="33" t="s">
         <v>81</v>
       </c>
@@ -10465,7 +10469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="33" t="s">
         <v>79</v>
       </c>
@@ -10509,7 +10513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="39" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="33" t="s">
         <v>80</v>
       </c>
@@ -10553,7 +10557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="33"/>
     </row>
   </sheetData>
@@ -10577,7 +10581,7 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
@@ -10592,7 +10596,7 @@
     <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -10627,7 +10631,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>29</v>
       </c>
@@ -10644,7 +10648,7 @@
       <c r="J2" s="96"/>
       <c r="K2" s="96"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>86</v>
       </c>
@@ -10661,7 +10665,7 @@
       <c r="J3" s="96"/>
       <c r="K3" s="96"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
         <v>61</v>
       </c>
@@ -10678,7 +10682,7 @@
       <c r="J4" s="96"/>
       <c r="K4" s="96"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
         <v>149</v>
       </c>
@@ -10695,7 +10699,7 @@
       <c r="J5" s="96"/>
       <c r="K5" s="96"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
         <v>197</v>
       </c>
@@ -10714,7 +10718,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
         <v>63</v>
       </c>
@@ -10733,7 +10737,7 @@
       <c r="J7" s="96"/>
       <c r="K7" s="96"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
         <v>64</v>
       </c>
@@ -10752,7 +10756,7 @@
       <c r="J8" s="96"/>
       <c r="K8" s="96"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>62</v>
       </c>
@@ -10771,7 +10775,7 @@
       <c r="J9" s="96"/>
       <c r="K9" s="96"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
         <v>190</v>
       </c>
@@ -10788,7 +10792,7 @@
       <c r="J10" s="96"/>
       <c r="K10" s="96"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="61" t="s">
         <v>207</v>
       </c>
@@ -10805,7 +10809,7 @@
       <c r="J11" s="96"/>
       <c r="K11" s="96"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="61" t="s">
         <v>191</v>
       </c>
@@ -10822,7 +10826,7 @@
       <c r="J12" s="96"/>
       <c r="K12" s="96"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="61" t="s">
         <v>192</v>
       </c>
@@ -10839,7 +10843,7 @@
       <c r="J13" s="96"/>
       <c r="K13" s="96"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="98" t="s">
         <v>189</v>
       </c>
@@ -10858,7 +10862,7 @@
       <c r="J14" s="96"/>
       <c r="K14" s="96"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="98" t="s">
         <v>206</v>
       </c>
@@ -10877,7 +10881,7 @@
       <c r="J15" s="96"/>
       <c r="K15" s="96"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
         <v>57</v>
       </c>
@@ -10898,7 +10902,7 @@
       <c r="J16" s="96"/>
       <c r="K16" s="96"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
         <v>47</v>
       </c>
@@ -10915,7 +10919,7 @@
       <c r="J17" s="96"/>
       <c r="K17" s="96"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="53" t="s">
         <v>175</v>
       </c>
@@ -10934,7 +10938,7 @@
       <c r="J18" s="96"/>
       <c r="K18" s="96"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
         <v>174</v>
       </c>
@@ -10953,7 +10957,7 @@
       <c r="J19" s="96"/>
       <c r="K19" s="96"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="53" t="s">
         <v>173</v>
       </c>
@@ -10972,7 +10976,7 @@
       <c r="J20" s="96"/>
       <c r="K20" s="96"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
         <v>196</v>
       </c>
@@ -10991,7 +10995,7 @@
       <c r="J21" s="96"/>
       <c r="K21" s="96"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="53" t="s">
         <v>136</v>
       </c>
@@ -11012,7 +11016,7 @@
       <c r="J22" s="96"/>
       <c r="K22" s="96"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
         <v>34</v>
       </c>
@@ -11031,7 +11035,7 @@
       <c r="J23" s="96"/>
       <c r="K23" s="96"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="53" t="s">
         <v>88</v>
       </c>
@@ -11048,7 +11052,7 @@
       <c r="J24" s="96"/>
       <c r="K24" s="96"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
         <v>87</v>
       </c>
@@ -11065,7 +11069,7 @@
       <c r="J25" s="96"/>
       <c r="K25" s="96"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="53" t="s">
         <v>137</v>
       </c>
@@ -11082,7 +11086,7 @@
       <c r="J26" s="96"/>
       <c r="K26" s="96"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
         <v>59</v>
       </c>
@@ -11101,7 +11105,7 @@
       <c r="J27" s="96"/>
       <c r="K27" s="96"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="53" t="s">
         <v>84</v>
       </c>
@@ -11118,7 +11122,7 @@
       <c r="J28" s="96"/>
       <c r="K28" s="96"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="53" t="s">
         <v>58</v>
       </c>
@@ -11137,7 +11141,7 @@
       <c r="J29" s="96"/>
       <c r="K29" s="96"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="53" t="s">
         <v>67</v>
       </c>
@@ -11154,7 +11158,7 @@
       <c r="J30" s="96"/>
       <c r="K30" s="96"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
         <v>185</v>
       </c>
@@ -11171,7 +11175,7 @@
       <c r="J31" s="96"/>
       <c r="K31" s="96"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="53" t="s">
         <v>28</v>
       </c>
@@ -11190,7 +11194,7 @@
       <c r="J32" s="96"/>
       <c r="K32" s="96"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
         <v>83</v>
       </c>
@@ -11209,7 +11213,7 @@
       <c r="J33" s="96"/>
       <c r="K33" s="96"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="53" t="s">
         <v>82</v>
       </c>
@@ -11228,7 +11232,7 @@
       <c r="J34" s="96"/>
       <c r="K34" s="96"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="53" t="s">
         <v>81</v>
       </c>
@@ -11247,7 +11251,7 @@
       <c r="J35" s="96"/>
       <c r="K35" s="96"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="53" t="s">
         <v>79</v>
       </c>
@@ -11266,7 +11270,7 @@
       <c r="J36" s="96"/>
       <c r="K36" s="96"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="53" t="s">
         <v>80</v>
       </c>
@@ -11285,7 +11289,7 @@
       <c r="J37" s="96"/>
       <c r="K37" s="96"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="53" t="s">
         <v>85</v>
       </c>
@@ -11302,7 +11306,7 @@
       <c r="J38" s="96"/>
       <c r="K38" s="96"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
         <v>60</v>
       </c>
@@ -11340,7 +11344,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
@@ -11355,7 +11359,7 @@
     <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>217</v>
       </c>
@@ -11390,7 +11394,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -11419,7 +11423,7 @@
       <c r="J2" s="96"/>
       <c r="K2" s="96"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -11448,7 +11452,7 @@
       <c r="J3" s="96"/>
       <c r="K3" s="96"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -11477,7 +11481,7 @@
       <c r="J4" s="96"/>
       <c r="K4" s="96"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
@@ -11506,7 +11510,7 @@
       <c r="J5" s="96"/>
       <c r="K5" s="96"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
@@ -11535,7 +11539,7 @@
       <c r="J6" s="96"/>
       <c r="K6" s="96"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>53</v>
       </c>
@@ -11556,7 +11560,7 @@
       <c r="J7" s="96"/>
       <c r="K7" s="96"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>54</v>
       </c>
@@ -11577,7 +11581,7 @@
       <c r="J8" s="96"/>
       <c r="K8" s="96"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>55</v>
       </c>
@@ -11598,7 +11602,7 @@
       <c r="J9" s="96"/>
       <c r="K9" s="96"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>56</v>
       </c>
@@ -11619,7 +11623,7 @@
       <c r="J10" s="96"/>
       <c r="K10" s="96"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>49</v>
       </c>
@@ -11640,7 +11644,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>50</v>
       </c>
@@ -11659,7 +11663,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>51</v>
       </c>
@@ -11678,7 +11682,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>52</v>
       </c>
@@ -11710,11 +11714,11 @@
   </sheetPr>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.109375" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
@@ -11722,7 +11726,7 @@
     <col min="4" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>218</v>
       </c>
@@ -11748,7 +11752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>219</v>
       </c>
@@ -11774,7 +11778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="146"/>
       <c r="C3" s="35" t="s">
         <v>177</v>
@@ -11796,7 +11800,7 @@
       </c>
       <c r="J3" s="106"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="146"/>
       <c r="C4" s="35" t="s">
         <v>176</v>
@@ -11818,7 +11822,7 @@
       </c>
       <c r="J4" s="106"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="146" t="s">
         <v>1</v>
       </c>
@@ -11842,7 +11846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="146"/>
       <c r="C6" s="35" t="s">
         <v>177</v>
@@ -11863,7 +11867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="146"/>
       <c r="C7" s="35" t="s">
         <v>176</v>
@@ -11884,7 +11888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="146" t="s">
         <v>2</v>
       </c>
@@ -11907,7 +11911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="146"/>
       <c r="C9" s="35" t="s">
         <v>177</v>
@@ -11928,7 +11932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="146"/>
       <c r="C10" s="35" t="s">
         <v>176</v>
@@ -11949,7 +11953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="146" t="s">
         <v>3</v>
       </c>
@@ -11972,7 +11976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="146"/>
       <c r="C12" s="35" t="s">
         <v>177</v>
@@ -11993,7 +11997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="146"/>
       <c r="C13" s="35" t="s">
         <v>176</v>
@@ -12014,7 +12018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="146" t="s">
         <v>4</v>
       </c>
@@ -12037,7 +12041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="146"/>
       <c r="C15" s="35" t="s">
         <v>177</v>
@@ -12058,7 +12062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="146"/>
       <c r="C16" s="35" t="s">
         <v>176</v>
@@ -12079,7 +12083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="107" t="s">
         <v>172</v>
       </c>
@@ -12102,14 +12106,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D18" s="108"/>
       <c r="E18" s="108"/>
       <c r="F18" s="108"/>
       <c r="G18" s="108"/>
       <c r="H18" s="108"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
         <v>220</v>
       </c>
@@ -12135,7 +12139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="146"/>
       <c r="C20" s="35" t="s">
         <v>177</v>
@@ -12156,7 +12160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="146"/>
       <c r="C21" s="35" t="s">
         <v>176</v>
@@ -12177,7 +12181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" s="146" t="s">
         <v>1</v>
       </c>
@@ -12200,7 +12204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="146"/>
       <c r="C23" s="35" t="s">
         <v>177</v>
@@ -12221,7 +12225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="146"/>
       <c r="C24" s="35" t="s">
         <v>176</v>
@@ -12242,7 +12246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="146" t="s">
         <v>2</v>
       </c>
@@ -12265,7 +12269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="146"/>
       <c r="C26" s="35" t="s">
         <v>177</v>
@@ -12286,7 +12290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="146"/>
       <c r="C27" s="35" t="s">
         <v>176</v>
@@ -12307,7 +12311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="146" t="s">
         <v>3</v>
       </c>
@@ -12330,7 +12334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="146"/>
       <c r="C29" s="35" t="s">
         <v>177</v>
@@ -12351,7 +12355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="146"/>
       <c r="C30" s="35" t="s">
         <v>176</v>
@@ -12372,7 +12376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="146" t="s">
         <v>4</v>
       </c>
@@ -12389,13 +12393,13 @@
         <v>1</v>
       </c>
       <c r="G31" s="105">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="H31" s="105">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="146"/>
       <c r="C32" s="35" t="s">
         <v>177</v>
@@ -12410,13 +12414,13 @@
         <v>1</v>
       </c>
       <c r="G32" s="105">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="H32" s="105">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="146"/>
       <c r="C33" s="35" t="s">
         <v>176</v>
@@ -12437,7 +12441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="107" t="s">
         <v>172</v>
       </c>
@@ -12460,14 +12464,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D35" s="108"/>
       <c r="E35" s="108"/>
       <c r="F35" s="108"/>
       <c r="G35" s="108"/>
       <c r="H35" s="108"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="109" t="s">
         <v>221</v>
       </c>
@@ -12493,7 +12497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="146"/>
       <c r="C37" s="35" t="s">
         <v>177</v>
@@ -12514,7 +12518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="146"/>
       <c r="C38" s="35" t="s">
         <v>176</v>
@@ -12535,7 +12539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="146" t="s">
         <v>1</v>
       </c>
@@ -12558,7 +12562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="146"/>
       <c r="C40" s="35" t="s">
         <v>177</v>
@@ -12579,7 +12583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="146"/>
       <c r="C41" s="35" t="s">
         <v>176</v>
@@ -12600,7 +12604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="146" t="s">
         <v>2</v>
       </c>
@@ -12623,7 +12627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="146"/>
       <c r="C43" s="35" t="s">
         <v>177</v>
@@ -12644,7 +12648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="146"/>
       <c r="C44" s="35" t="s">
         <v>176</v>
@@ -12665,7 +12669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="146" t="s">
         <v>3</v>
       </c>
@@ -12688,7 +12692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="146"/>
       <c r="C46" s="35" t="s">
         <v>177</v>
@@ -12709,7 +12713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" s="146"/>
       <c r="C47" s="35" t="s">
         <v>176</v>
@@ -12730,7 +12734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B48" s="146" t="s">
         <v>4</v>
       </c>
@@ -12753,7 +12757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="146"/>
       <c r="C49" s="35" t="s">
         <v>177</v>
@@ -12774,7 +12778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="146"/>
       <c r="C50" s="35" t="s">
         <v>176</v>
@@ -12795,7 +12799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="110" t="s">
         <v>172</v>
       </c>
@@ -12821,6 +12825,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -12830,12 +12840,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -12853,7 +12857,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.88671875" style="35" customWidth="1"/>
     <col min="2" max="2" width="34.109375" style="35" customWidth="1"/>
@@ -12863,12 +12867,12 @@
     <col min="7" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="112" customFormat="1" ht="18.75" customHeight="1">
+    <row r="1" spans="1:7" s="112" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="111" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="113"/>
       <c r="C2" s="114" t="s">
         <v>26</v>
@@ -12883,7 +12887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>223</v>
       </c>
@@ -12893,7 +12897,7 @@
       <c r="E3" s="118"/>
       <c r="F3" s="118"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="119" t="s">
         <v>75</v>
       </c>
@@ -12910,7 +12914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="119" t="s">
         <v>76</v>
       </c>
@@ -12927,7 +12931,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="119" t="s">
         <v>77</v>
       </c>
@@ -12944,7 +12948,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="119" t="s">
         <v>78</v>
       </c>
@@ -12961,13 +12965,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="122"/>
       <c r="D8" s="106"/>
       <c r="E8" s="106"/>
       <c r="F8" s="106"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>224</v>
       </c>
@@ -12985,14 +12989,14 @@
       </c>
       <c r="G9" s="123"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="122"/>
       <c r="D10" s="106"/>
       <c r="E10" s="106"/>
       <c r="F10" s="106"/>
       <c r="G10" s="123"/>
     </row>
-    <row r="11" spans="1:7" s="112" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:7" s="112" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="111" t="s">
         <v>225</v>
       </c>
@@ -13002,7 +13006,7 @@
       <c r="F11" s="125"/>
       <c r="G11" s="126"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>226</v>
       </c>
@@ -13012,7 +13016,7 @@
       <c r="F12" s="106"/>
       <c r="G12" s="123"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="127" t="s">
         <v>227</v>
       </c>
@@ -13030,7 +13034,7 @@
       </c>
       <c r="G13" s="123"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="127" t="s">
         <v>228</v>
       </c>
@@ -13048,7 +13052,7 @@
       </c>
       <c r="G14" s="123"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="127" t="s">
         <v>229</v>
       </c>
@@ -13066,7 +13070,7 @@
       </c>
       <c r="G15" s="123"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="127"/>
       <c r="C16" s="128"/>
@@ -13075,7 +13079,7 @@
       <c r="F16" s="106"/>
       <c r="G16" s="123"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
         <v>230</v>
       </c>
@@ -13086,7 +13090,7 @@
       <c r="F17" s="130"/>
       <c r="G17" s="123"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="131" t="s">
         <v>73</v>
       </c>
@@ -13104,7 +13108,7 @@
       </c>
       <c r="G18" s="123"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="131" t="s">
         <v>7</v>
       </c>
@@ -13122,7 +13126,7 @@
       </c>
       <c r="G19" s="123"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="131" t="s">
         <v>8</v>
       </c>
@@ -13140,7 +13144,7 @@
       </c>
       <c r="G20" s="123"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="131" t="s">
         <v>10</v>
       </c>
@@ -13158,7 +13162,7 @@
       </c>
       <c r="G21" s="123"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="131" t="s">
         <v>13</v>
       </c>
@@ -13175,7 +13179,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="131" t="s">
         <v>14</v>
       </c>
@@ -13192,7 +13196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="131" t="s">
         <v>27</v>
       </c>
@@ -13209,7 +13213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="131" t="s">
         <v>15</v>
       </c>
@@ -13226,10 +13230,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="127"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="40"/>
     </row>
   </sheetData>
@@ -13250,7 +13254,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.21875" style="35" customWidth="1"/>
     <col min="2" max="2" width="26.88671875" style="35" customWidth="1"/>
@@ -13261,12 +13265,12 @@
     <col min="17" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="112" customFormat="1">
+    <row r="1" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="111" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="132" t="s">
         <v>211</v>
       </c>
@@ -13300,7 +13304,7 @@
       <c r="O2" s="134"/>
       <c r="P2" s="134"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>71</v>
@@ -13332,7 +13336,7 @@
       <c r="O3" s="132"/>
       <c r="P3" s="132"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C4" s="43" t="s">
         <v>235</v>
       </c>
@@ -13360,7 +13364,7 @@
       <c r="O4" s="132"/>
       <c r="P4" s="132"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C5" s="43" t="s">
         <v>236</v>
       </c>
@@ -13388,7 +13392,7 @@
       <c r="O5" s="132"/>
       <c r="P5" s="132"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C6" s="43" t="s">
         <v>237</v>
       </c>
@@ -13416,7 +13420,7 @@
       <c r="O6" s="132"/>
       <c r="P6" s="132"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="35" t="s">
         <v>16</v>
       </c>
@@ -13447,7 +13451,7 @@
       <c r="O7" s="132"/>
       <c r="P7" s="132"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" s="43" t="s">
         <v>235</v>
       </c>
@@ -13475,7 +13479,7 @@
       <c r="O8" s="132"/>
       <c r="P8" s="132"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C9" s="43" t="s">
         <v>236</v>
       </c>
@@ -13503,7 +13507,7 @@
       <c r="O9" s="132"/>
       <c r="P9" s="132"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" s="43" t="s">
         <v>237</v>
       </c>
@@ -13531,7 +13535,7 @@
       <c r="O10" s="132"/>
       <c r="P10" s="132"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="35" t="s">
         <v>18</v>
       </c>
@@ -13562,7 +13566,7 @@
       <c r="O11" s="132"/>
       <c r="P11" s="132"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="43" t="s">
         <v>235</v>
       </c>
@@ -13590,7 +13594,7 @@
       <c r="O12" s="132"/>
       <c r="P12" s="132"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="43" t="s">
         <v>236</v>
       </c>
@@ -13618,7 +13622,7 @@
       <c r="O13" s="132"/>
       <c r="P13" s="132"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="43" t="s">
         <v>237</v>
       </c>
@@ -13646,7 +13650,7 @@
       <c r="O14" s="132"/>
       <c r="P14" s="132"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="35" t="s">
         <v>19</v>
       </c>
@@ -13677,7 +13681,7 @@
       <c r="O15" s="132"/>
       <c r="P15" s="132"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="43" t="s">
         <v>235</v>
       </c>
@@ -13705,7 +13709,7 @@
       <c r="O16" s="132"/>
       <c r="P16" s="132"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C17" s="43" t="s">
         <v>236</v>
       </c>
@@ -13733,7 +13737,7 @@
       <c r="O17" s="132"/>
       <c r="P17" s="132"/>
     </row>
-    <row r="18" spans="1:16" ht="13.95" customHeight="1">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="43" t="s">
         <v>237</v>
       </c>
@@ -13761,7 +13765,7 @@
       <c r="O18" s="132"/>
       <c r="P18" s="132"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B19" s="36" t="s">
         <v>17</v>
       </c>
@@ -13792,7 +13796,7 @@
       <c r="O19" s="132"/>
       <c r="P19" s="132"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C20" s="43" t="s">
         <v>235</v>
       </c>
@@ -13820,7 +13824,7 @@
       <c r="O20" s="132"/>
       <c r="P20" s="132"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C21" s="43" t="s">
         <v>236</v>
       </c>
@@ -13848,7 +13852,7 @@
       <c r="O21" s="132"/>
       <c r="P21" s="132"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C22" s="43" t="s">
         <v>237</v>
       </c>
@@ -13876,7 +13880,7 @@
       <c r="O22" s="132"/>
       <c r="P22" s="132"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B23" s="36" t="s">
         <v>23</v>
       </c>
@@ -13907,7 +13911,7 @@
       <c r="O23" s="132"/>
       <c r="P23" s="132"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C24" s="43" t="s">
         <v>235</v>
       </c>
@@ -13935,7 +13939,7 @@
       <c r="O24" s="132"/>
       <c r="P24" s="132"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C25" s="43" t="s">
         <v>236</v>
       </c>
@@ -13963,7 +13967,7 @@
       <c r="O25" s="132"/>
       <c r="P25" s="132"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C26" s="43" t="s">
         <v>237</v>
       </c>
@@ -13991,12 +13995,12 @@
       <c r="O26" s="132"/>
       <c r="P26" s="132"/>
     </row>
-    <row r="28" spans="1:16" s="112" customFormat="1">
+    <row r="28" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="111" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1">
+    <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="135" t="s">
         <v>239</v>
       </c>
@@ -14030,7 +14034,7 @@
       <c r="O29" s="134"/>
       <c r="P29" s="134"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>71</v>
@@ -14062,7 +14066,7 @@
       <c r="O30" s="132"/>
       <c r="P30" s="132"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C31" s="43" t="s">
         <v>235</v>
       </c>
@@ -14090,7 +14094,7 @@
       <c r="O31" s="132"/>
       <c r="P31" s="132"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C32" s="43" t="s">
         <v>65</v>
       </c>
@@ -14118,7 +14122,7 @@
       <c r="O32" s="132"/>
       <c r="P32" s="132"/>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C33" s="43" t="s">
         <v>66</v>
       </c>
@@ -14146,7 +14150,7 @@
       <c r="O33" s="132"/>
       <c r="P33" s="132"/>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="35" t="s">
         <v>16</v>
       </c>
@@ -14177,7 +14181,7 @@
       <c r="O34" s="132"/>
       <c r="P34" s="132"/>
     </row>
-    <row r="35" spans="2:16">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C35" s="43" t="s">
         <v>235</v>
       </c>
@@ -14205,7 +14209,7 @@
       <c r="O35" s="132"/>
       <c r="P35" s="132"/>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C36" s="43" t="s">
         <v>65</v>
       </c>
@@ -14233,7 +14237,7 @@
       <c r="O36" s="132"/>
       <c r="P36" s="132"/>
     </row>
-    <row r="37" spans="2:16">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C37" s="43" t="s">
         <v>66</v>
       </c>
@@ -14261,7 +14265,7 @@
       <c r="O37" s="132"/>
       <c r="P37" s="132"/>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="35" t="s">
         <v>18</v>
       </c>
@@ -14292,7 +14296,7 @@
       <c r="O38" s="132"/>
       <c r="P38" s="132"/>
     </row>
-    <row r="39" spans="2:16">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C39" s="43" t="s">
         <v>235</v>
       </c>
@@ -14320,7 +14324,7 @@
       <c r="O39" s="132"/>
       <c r="P39" s="132"/>
     </row>
-    <row r="40" spans="2:16">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C40" s="43" t="s">
         <v>65</v>
       </c>
@@ -14348,7 +14352,7 @@
       <c r="O40" s="132"/>
       <c r="P40" s="132"/>
     </row>
-    <row r="41" spans="2:16">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C41" s="43" t="s">
         <v>66</v>
       </c>
@@ -14376,7 +14380,7 @@
       <c r="O41" s="132"/>
       <c r="P41" s="132"/>
     </row>
-    <row r="42" spans="2:16">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="35" t="s">
         <v>19</v>
       </c>
@@ -14407,7 +14411,7 @@
       <c r="O42" s="132"/>
       <c r="P42" s="132"/>
     </row>
-    <row r="43" spans="2:16">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C43" s="43" t="s">
         <v>235</v>
       </c>
@@ -14435,7 +14439,7 @@
       <c r="O43" s="132"/>
       <c r="P43" s="132"/>
     </row>
-    <row r="44" spans="2:16">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C44" s="43" t="s">
         <v>65</v>
       </c>
@@ -14463,7 +14467,7 @@
       <c r="O44" s="132"/>
       <c r="P44" s="132"/>
     </row>
-    <row r="45" spans="2:16">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C45" s="43" t="s">
         <v>66</v>
       </c>
@@ -14491,7 +14495,7 @@
       <c r="O45" s="132"/>
       <c r="P45" s="132"/>
     </row>
-    <row r="46" spans="2:16">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="35" t="s">
         <v>17</v>
       </c>
@@ -14522,7 +14526,7 @@
       <c r="O46" s="132"/>
       <c r="P46" s="132"/>
     </row>
-    <row r="47" spans="2:16">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C47" s="43" t="s">
         <v>235</v>
       </c>
@@ -14550,7 +14554,7 @@
       <c r="O47" s="132"/>
       <c r="P47" s="132"/>
     </row>
-    <row r="48" spans="2:16">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C48" s="43" t="s">
         <v>65</v>
       </c>
@@ -14578,7 +14582,7 @@
       <c r="O48" s="132"/>
       <c r="P48" s="132"/>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C49" s="43" t="s">
         <v>66</v>
       </c>
@@ -14606,7 +14610,7 @@
       <c r="O49" s="132"/>
       <c r="P49" s="132"/>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B50" s="35" t="s">
         <v>23</v>
       </c>
@@ -14637,7 +14641,7 @@
       <c r="O50" s="132"/>
       <c r="P50" s="132"/>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C51" s="43" t="s">
         <v>235</v>
       </c>
@@ -14665,7 +14669,7 @@
       <c r="O51" s="132"/>
       <c r="P51" s="132"/>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C52" s="43" t="s">
         <v>65</v>
       </c>
@@ -14693,7 +14697,7 @@
       <c r="O52" s="132"/>
       <c r="P52" s="132"/>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C53" s="43" t="s">
         <v>66</v>
       </c>
@@ -14721,16 +14725,16 @@
       <c r="O53" s="132"/>
       <c r="P53" s="132"/>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="112" customFormat="1">
+    <row r="55" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="111" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A56" s="135" t="s">
         <v>70</v>
       </c>
@@ -14758,7 +14762,7 @@
       <c r="O56" s="134"/>
       <c r="P56" s="134"/>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>38</v>
@@ -14784,7 +14788,7 @@
       <c r="O57" s="132"/>
       <c r="P57" s="132"/>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C58" s="43" t="s">
         <v>244</v>
       </c>
@@ -14806,7 +14810,7 @@
       <c r="O58" s="132"/>
       <c r="P58" s="132"/>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B59" s="35" t="s">
         <v>39</v>
       </c>
@@ -14831,7 +14835,7 @@
       <c r="O59" s="132"/>
       <c r="P59" s="132"/>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C60" s="43" t="s">
         <v>244</v>
       </c>
@@ -14853,7 +14857,7 @@
       <c r="O60" s="132"/>
       <c r="P60" s="132"/>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B61" s="35" t="s">
         <v>40</v>
       </c>
@@ -14878,7 +14882,7 @@
       <c r="O61" s="132"/>
       <c r="P61" s="132"/>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C62" s="43" t="s">
         <v>244</v>
       </c>
@@ -14900,16 +14904,16 @@
       <c r="O62" s="132"/>
       <c r="P62" s="132"/>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="112" customFormat="1">
+    <row r="64" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="111" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65" s="135" t="s">
         <v>24</v>
       </c>
@@ -14943,7 +14947,7 @@
       <c r="O65" s="134"/>
       <c r="P65" s="134"/>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="139"/>
       <c r="B66" s="35" t="s">
         <v>73</v>
@@ -14975,7 +14979,7 @@
       <c r="O66" s="132"/>
       <c r="P66" s="132"/>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C67" s="43" t="s">
         <v>167</v>
       </c>
@@ -15003,7 +15007,7 @@
       <c r="O67" s="132"/>
       <c r="P67" s="132"/>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C68" s="43" t="s">
         <v>168</v>
       </c>
@@ -15031,7 +15035,7 @@
       <c r="O68" s="132"/>
       <c r="P68" s="132"/>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C69" s="43" t="s">
         <v>169</v>
       </c>
@@ -15059,7 +15063,7 @@
       <c r="O69" s="132"/>
       <c r="P69" s="132"/>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B70" s="35" t="s">
         <v>7</v>
       </c>
@@ -15090,7 +15094,7 @@
       <c r="O70" s="132"/>
       <c r="P70" s="132"/>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C71" s="43" t="s">
         <v>167</v>
       </c>
@@ -15118,7 +15122,7 @@
       <c r="O71" s="132"/>
       <c r="P71" s="132"/>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C72" s="43" t="s">
         <v>168</v>
       </c>
@@ -15146,7 +15150,7 @@
       <c r="O72" s="132"/>
       <c r="P72" s="132"/>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C73" s="43" t="s">
         <v>169</v>
       </c>
@@ -15174,7 +15178,7 @@
       <c r="O73" s="132"/>
       <c r="P73" s="132"/>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B74" s="35" t="s">
         <v>8</v>
       </c>
@@ -15205,7 +15209,7 @@
       <c r="O74" s="132"/>
       <c r="P74" s="132"/>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C75" s="43" t="s">
         <v>167</v>
       </c>
@@ -15233,7 +15237,7 @@
       <c r="O75" s="132"/>
       <c r="P75" s="132"/>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C76" s="43" t="s">
         <v>168</v>
       </c>
@@ -15261,7 +15265,7 @@
       <c r="O76" s="132"/>
       <c r="P76" s="132"/>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C77" s="43" t="s">
         <v>169</v>
       </c>
@@ -15289,7 +15293,7 @@
       <c r="O77" s="132"/>
       <c r="P77" s="132"/>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B78" s="35" t="s">
         <v>13</v>
       </c>
@@ -15320,7 +15324,7 @@
       <c r="O78" s="132"/>
       <c r="P78" s="132"/>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C79" s="43" t="s">
         <v>167</v>
       </c>
@@ -15348,7 +15352,7 @@
       <c r="O79" s="132"/>
       <c r="P79" s="132"/>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C80" s="43" t="s">
         <v>168</v>
       </c>
@@ -15376,7 +15380,7 @@
       <c r="O80" s="132"/>
       <c r="P80" s="132"/>
     </row>
-    <row r="81" spans="2:16">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C81" s="43" t="s">
         <v>169</v>
       </c>
@@ -15404,7 +15408,7 @@
       <c r="O81" s="132"/>
       <c r="P81" s="132"/>
     </row>
-    <row r="82" spans="2:16">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B82" s="35" t="s">
         <v>71</v>
       </c>
@@ -15435,7 +15439,7 @@
       <c r="O82" s="132"/>
       <c r="P82" s="132"/>
     </row>
-    <row r="83" spans="2:16">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C83" s="43" t="s">
         <v>167</v>
       </c>
@@ -15463,7 +15467,7 @@
       <c r="O83" s="132"/>
       <c r="P83" s="132"/>
     </row>
-    <row r="84" spans="2:16">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C84" s="43" t="s">
         <v>168</v>
       </c>
@@ -15491,7 +15495,7 @@
       <c r="O84" s="132"/>
       <c r="P84" s="132"/>
     </row>
-    <row r="85" spans="2:16">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C85" s="43" t="s">
         <v>169</v>
       </c>
@@ -15519,7 +15523,7 @@
       <c r="O85" s="132"/>
       <c r="P85" s="132"/>
     </row>
-    <row r="86" spans="2:16">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B86" s="35" t="s">
         <v>16</v>
       </c>
@@ -15550,7 +15554,7 @@
       <c r="O86" s="132"/>
       <c r="P86" s="132"/>
     </row>
-    <row r="87" spans="2:16">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C87" s="43" t="s">
         <v>167</v>
       </c>
@@ -15578,7 +15582,7 @@
       <c r="O87" s="132"/>
       <c r="P87" s="132"/>
     </row>
-    <row r="88" spans="2:16">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C88" s="43" t="s">
         <v>168</v>
       </c>
@@ -15606,7 +15610,7 @@
       <c r="O88" s="132"/>
       <c r="P88" s="132"/>
     </row>
-    <row r="89" spans="2:16">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C89" s="43" t="s">
         <v>169</v>
       </c>
@@ -15634,7 +15638,7 @@
       <c r="O89" s="132"/>
       <c r="P89" s="132"/>
     </row>
-    <row r="90" spans="2:16">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B90" s="35" t="s">
         <v>18</v>
       </c>
@@ -15665,7 +15669,7 @@
       <c r="O90" s="132"/>
       <c r="P90" s="132"/>
     </row>
-    <row r="91" spans="2:16">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C91" s="43" t="s">
         <v>167</v>
       </c>
@@ -15693,7 +15697,7 @@
       <c r="O91" s="132"/>
       <c r="P91" s="132"/>
     </row>
-    <row r="92" spans="2:16">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C92" s="43" t="s">
         <v>168</v>
       </c>
@@ -15721,7 +15725,7 @@
       <c r="O92" s="132"/>
       <c r="P92" s="132"/>
     </row>
-    <row r="93" spans="2:16">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C93" s="43" t="s">
         <v>169</v>
       </c>
@@ -15749,7 +15753,7 @@
       <c r="O93" s="132"/>
       <c r="P93" s="132"/>
     </row>
-    <row r="94" spans="2:16">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B94" s="35" t="s">
         <v>17</v>
       </c>
@@ -15780,7 +15784,7 @@
       <c r="O94" s="132"/>
       <c r="P94" s="132"/>
     </row>
-    <row r="95" spans="2:16">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C95" s="43" t="s">
         <v>167</v>
       </c>
@@ -15808,7 +15812,7 @@
       <c r="O95" s="132"/>
       <c r="P95" s="132"/>
     </row>
-    <row r="96" spans="2:16">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C96" s="43" t="s">
         <v>168</v>
       </c>
@@ -15836,7 +15840,7 @@
       <c r="O96" s="132"/>
       <c r="P96" s="132"/>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C97" s="43" t="s">
         <v>169</v>
       </c>
@@ -15864,7 +15868,7 @@
       <c r="O97" s="132"/>
       <c r="P97" s="132"/>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B98" s="35" t="s">
         <v>20</v>
       </c>
@@ -15895,7 +15899,7 @@
       <c r="O98" s="132"/>
       <c r="P98" s="132"/>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C99" s="43" t="s">
         <v>167</v>
       </c>
@@ -15923,7 +15927,7 @@
       <c r="O99" s="132"/>
       <c r="P99" s="132"/>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C100" s="43" t="s">
         <v>168</v>
       </c>
@@ -15951,7 +15955,7 @@
       <c r="O100" s="132"/>
       <c r="P100" s="132"/>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C101" s="43" t="s">
         <v>169</v>
       </c>
@@ -15979,12 +15983,12 @@
       <c r="O101" s="132"/>
       <c r="P101" s="132"/>
     </row>
-    <row r="103" spans="1:16" s="112" customFormat="1">
+    <row r="103" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="111" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A104" s="135" t="s">
         <v>71</v>
       </c>
@@ -16018,7 +16022,7 @@
       <c r="O104" s="134"/>
       <c r="P104" s="134"/>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -16048,7 +16052,7 @@
       <c r="O105" s="132"/>
       <c r="P105" s="132"/>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C106" s="43" t="s">
         <v>167</v>
       </c>
@@ -16076,7 +16080,7 @@
       <c r="O106" s="132"/>
       <c r="P106" s="132"/>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C107" s="43" t="s">
         <v>168</v>
       </c>
@@ -16104,7 +16108,7 @@
       <c r="O107" s="132"/>
       <c r="P107" s="132"/>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C108" s="43" t="s">
         <v>169</v>
       </c>
@@ -16132,7 +16136,7 @@
       <c r="O108" s="132"/>
       <c r="P108" s="132"/>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
     </row>
   </sheetData>
@@ -16153,14 +16157,14 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.44140625" style="12" customWidth="1"/>
     <col min="2" max="9" width="16.77734375" style="12" customWidth="1"/>
     <col min="10" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -16189,7 +16193,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="92">
         <f>start_year</f>
         <v>2020</v>
@@ -16212,7 +16216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="92">
         <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
         <v>2021</v>
@@ -16235,7 +16239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="92">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -16258,7 +16262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="92">
         <f t="shared" si="2"/>
         <v>2023</v>
@@ -16281,7 +16285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="92">
         <f t="shared" si="2"/>
         <v>2024</v>
@@ -16304,7 +16308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="92">
         <f t="shared" si="2"/>
         <v>2025</v>
@@ -16327,7 +16331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="92">
         <f t="shared" si="2"/>
         <v>2026</v>
@@ -16350,7 +16354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="92">
         <f t="shared" si="2"/>
         <v>2027</v>
@@ -16373,7 +16377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="92">
         <f t="shared" si="2"/>
         <v>2028</v>
@@ -16396,7 +16400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="92">
         <f t="shared" si="2"/>
         <v>2029</v>
@@ -16419,7 +16423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="92">
         <f t="shared" si="2"/>
         <v>2030</v>
@@ -16442,7 +16446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16465,7 +16469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16488,7 +16492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16511,7 +16515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16534,7 +16538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16557,7 +16561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16580,7 +16584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16603,7 +16607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16626,7 +16630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16649,7 +16653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16672,7 +16676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16695,7 +16699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16718,7 +16722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16741,7 +16745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16764,7 +16768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16787,7 +16791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16810,7 +16814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16833,7 +16837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16856,7 +16860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16879,7 +16883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16902,7 +16906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16925,7 +16929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16948,7 +16952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16971,7 +16975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16994,7 +16998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17017,7 +17021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17040,7 +17044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17063,7 +17067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17109,7 +17113,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.77734375" style="35" customWidth="1"/>
     <col min="2" max="2" width="44.44140625" style="35" customWidth="1"/>
@@ -17121,12 +17125,12 @@
     <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="111" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="139" t="s">
         <v>25</v>
       </c>
@@ -17147,7 +17151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="127" t="s">
         <v>249</v>
       </c>
@@ -17167,7 +17171,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40"/>
       <c r="B4" s="131" t="s">
         <v>251</v>
@@ -17188,12 +17192,12 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="116" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="131" t="s">
         <v>58</v>
       </c>
@@ -17213,7 +17217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="131" t="s">
         <v>136</v>
       </c>
@@ -17233,7 +17237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="131" t="s">
         <v>60</v>
       </c>
@@ -17253,7 +17257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="131"/>
       <c r="C9" s="131"/>
       <c r="D9" s="131"/>
@@ -17261,12 +17265,12 @@
       <c r="F9" s="131"/>
       <c r="G9" s="131"/>
     </row>
-    <row r="10" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1">
+    <row r="10" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="111" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="116"/>
       <c r="B11" s="127" t="s">
         <v>196</v>
@@ -17287,16 +17291,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="116"/>
       <c r="B12" s="127"/>
     </row>
-    <row r="13" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1">
+    <row r="13" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="111" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="139" t="s">
         <v>239</v>
       </c>
@@ -17319,7 +17323,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="131" t="s">
         <v>256</v>
@@ -17340,7 +17344,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="139" t="s">
         <v>70</v>
       </c>
@@ -17363,13 +17367,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="18" spans="1:6" s="112" customFormat="1" ht="14.25" customHeight="1">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:6" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="111" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="116" customFormat="1" ht="14.25" customHeight="1">
+    <row r="19" spans="1:6" s="116" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="57" t="s">
         <v>49</v>
       </c>
@@ -17383,7 +17387,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="127" t="s">
         <v>197</v>
       </c>
@@ -17419,7 +17423,7 @@
       <selection activeCell="C12" sqref="C12:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.21875" style="35" customWidth="1"/>
     <col min="2" max="6" width="16.109375" style="35"/>
@@ -17428,7 +17432,7 @@
     <col min="9" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="133" t="s">
         <v>69</v>
       </c>
@@ -17446,7 +17450,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="98" t="s">
         <v>29</v>
       </c>
@@ -17466,7 +17470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="98"/>
       <c r="B3" s="98" t="s">
         <v>260</v>
@@ -17484,7 +17488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="98" t="s">
         <v>189</v>
       </c>
@@ -17504,7 +17508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="98"/>
       <c r="B5" s="98" t="s">
         <v>260</v>
@@ -17522,7 +17526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="98" t="s">
         <v>206</v>
       </c>
@@ -17542,7 +17546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="98"/>
       <c r="B7" s="98" t="s">
         <v>260</v>
@@ -17560,7 +17564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="98" t="s">
         <v>57</v>
       </c>
@@ -17580,7 +17584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="98"/>
       <c r="B9" s="98" t="s">
         <v>260</v>
@@ -17598,7 +17602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="98" t="s">
         <v>34</v>
       </c>
@@ -17618,7 +17622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="98"/>
       <c r="B11" s="98" t="s">
         <v>260</v>
@@ -17636,7 +17640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="98" t="s">
         <v>59</v>
       </c>
@@ -17656,7 +17660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="98"/>
       <c r="B13" s="98" t="s">
         <v>260</v>
@@ -17674,10 +17678,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="98"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="98"/>
     </row>
   </sheetData>
@@ -17698,7 +17702,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5546875" style="35" customWidth="1"/>
     <col min="2" max="2" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
@@ -17706,7 +17710,7 @@
     <col min="16" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="115" t="s">
@@ -17749,12 +17753,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="61" t="s">
         <v>149</v>
       </c>
@@ -17798,7 +17802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" s="61" t="s">
         <v>190</v>
       </c>
@@ -17842,7 +17846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="61" t="s">
         <v>207</v>
       </c>
@@ -17886,7 +17890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="61" t="s">
         <v>191</v>
       </c>
@@ -17930,7 +17934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="61" t="s">
         <v>192</v>
       </c>
@@ -17974,7 +17978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="98" t="s">
         <v>189</v>
       </c>
@@ -18018,7 +18022,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="98" t="s">
         <v>206</v>
       </c>
@@ -18062,7 +18066,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="61" t="s">
         <v>57</v>
       </c>
@@ -18106,7 +18110,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="98" t="s">
         <v>136</v>
       </c>
@@ -18150,7 +18154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="61" t="s">
         <v>34</v>
       </c>
@@ -18194,7 +18198,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13.05" customHeight="1">
+    <row r="13" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="61" t="s">
         <v>137</v>
       </c>
@@ -18238,7 +18242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="61" t="s">
         <v>59</v>
       </c>
@@ -18282,13 +18286,13 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
         <v>262</v>
       </c>
       <c r="B16" s="61"/>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="98" t="s">
         <v>63</v>
       </c>
@@ -18332,7 +18336,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="98" t="s">
         <v>64</v>
       </c>
@@ -18376,7 +18380,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="98" t="s">
         <v>62</v>
       </c>
@@ -18420,7 +18424,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="98" t="s">
         <v>47</v>
       </c>
@@ -18464,16 +18468,16 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="43"/>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="43"/>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="43"/>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="43"/>
     </row>
   </sheetData>
@@ -18494,7 +18498,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.33203125" style="35" customWidth="1"/>
     <col min="2" max="2" width="27.21875" style="35" customWidth="1"/>
@@ -18502,7 +18506,7 @@
     <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="40"/>
       <c r="B1" s="133"/>
       <c r="C1" s="40" t="s">
@@ -18521,12 +18525,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="61" t="s">
         <v>67</v>
       </c>
@@ -18546,7 +18550,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>264</v>
       </c>
@@ -18557,7 +18561,7 @@
       <c r="F4" s="143"/>
       <c r="G4" s="143"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="98" t="s">
         <v>185</v>
       </c>
@@ -18595,7 +18599,7 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="53" customWidth="1"/>
     <col min="2" max="2" width="30.5546875" style="53" customWidth="1"/>
@@ -18608,7 +18612,7 @@
     <col min="9" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -18634,7 +18638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>28</v>
       </c>
@@ -18660,7 +18664,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="53" t="s">
         <v>268</v>
       </c>
@@ -18680,7 +18684,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C4" s="53" t="s">
         <v>269</v>
       </c>
@@ -18700,7 +18704,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
         <v>58</v>
       </c>
@@ -18726,7 +18730,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="53" t="s">
         <v>269</v>
       </c>
@@ -18746,7 +18750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="53" t="s">
         <v>65</v>
       </c>
@@ -18769,7 +18773,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" s="53" t="s">
         <v>269</v>
       </c>
@@ -18789,7 +18793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>136</v>
       </c>
@@ -18815,7 +18819,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="53" t="s">
         <v>269</v>
       </c>
@@ -18835,7 +18839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="53" t="s">
         <v>65</v>
       </c>
@@ -18858,7 +18862,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" s="53" t="s">
         <v>269</v>
       </c>
@@ -18878,7 +18882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="53" t="s">
         <v>61</v>
       </c>
@@ -18904,7 +18908,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="53" t="s">
         <v>269</v>
       </c>
@@ -18925,7 +18929,7 @@
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="53" t="s">
         <v>65</v>
       </c>
@@ -18949,7 +18953,7 @@
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16" s="53" t="s">
         <v>269</v>
       </c>
@@ -18970,7 +18974,7 @@
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
         <v>185</v>
       </c>
@@ -18997,7 +19001,7 @@
       </c>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C18" s="53" t="s">
         <v>269</v>
       </c>
@@ -19018,7 +19022,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="53" t="s">
         <v>65</v>
       </c>
@@ -19042,7 +19046,7 @@
       </c>
       <c r="I19" s="36"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C20" s="53" t="s">
         <v>269</v>
       </c>
@@ -19063,7 +19067,7 @@
       </c>
       <c r="I20" s="36"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
         <v>62</v>
       </c>
@@ -19090,7 +19094,7 @@
       </c>
       <c r="I21" s="36"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C22" s="53" t="s">
         <v>268</v>
       </c>
@@ -19111,7 +19115,7 @@
       </c>
       <c r="I22" s="36"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
         <v>63</v>
       </c>
@@ -19137,7 +19141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" s="53" t="s">
         <v>268</v>
       </c>
@@ -19157,7 +19161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
         <v>64</v>
       </c>
@@ -19183,7 +19187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C26" s="53" t="s">
         <v>268</v>
       </c>
@@ -19203,7 +19207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
         <v>79</v>
       </c>
@@ -19229,7 +19233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C28" s="53" t="s">
         <v>268</v>
       </c>
@@ -19249,7 +19253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C29" s="53" t="s">
         <v>269</v>
       </c>
@@ -19269,7 +19273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="53" t="s">
         <v>80</v>
       </c>
@@ -19295,7 +19299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C31" s="53" t="s">
         <v>268</v>
       </c>
@@ -19315,7 +19319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C32" s="53" t="s">
         <v>269</v>
       </c>
@@ -19335,7 +19339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
         <v>81</v>
       </c>
@@ -19361,7 +19365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C34" s="53" t="s">
         <v>268</v>
       </c>
@@ -19381,7 +19385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C35" s="53" t="s">
         <v>269</v>
       </c>
@@ -19401,7 +19405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="53" t="s">
         <v>82</v>
       </c>
@@ -19427,7 +19431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C37" s="53" t="s">
         <v>268</v>
       </c>
@@ -19447,7 +19451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C38" s="53" t="s">
         <v>269</v>
       </c>
@@ -19467,7 +19471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
         <v>83</v>
       </c>
@@ -19493,7 +19497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40" s="53" t="s">
         <v>268</v>
       </c>
@@ -19513,7 +19517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C41" s="53" t="s">
         <v>269</v>
       </c>
@@ -19533,7 +19537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="53" t="s">
         <v>60</v>
       </c>
@@ -19559,7 +19563,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C43" s="53" t="s">
         <v>268</v>
       </c>
@@ -19579,7 +19583,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C44" s="53" t="s">
         <v>269</v>
       </c>
@@ -19599,7 +19603,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="53" t="s">
         <v>16</v>
       </c>
@@ -19622,7 +19626,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C46" s="53" t="s">
         <v>268</v>
       </c>
@@ -19642,7 +19646,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C47" s="53" t="s">
         <v>269</v>
       </c>
@@ -19662,7 +19666,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="53" t="s">
         <v>84</v>
       </c>
@@ -19688,7 +19692,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C49" s="53" t="s">
         <v>268</v>
       </c>
@@ -19708,7 +19712,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="53" t="s">
         <v>85</v>
       </c>
@@ -19734,7 +19738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C51" s="53" t="s">
         <v>268</v>
       </c>
@@ -19754,7 +19758,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="53" t="s">
         <v>196</v>
       </c>
@@ -19780,7 +19784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C53" s="53" t="s">
         <v>268</v>
       </c>
@@ -19818,7 +19822,7 @@
       <selection activeCell="D7" sqref="D7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
     <col min="2" max="2" width="27.44140625" style="35" customWidth="1"/>
@@ -19827,7 +19831,7 @@
     <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="133" t="s">
         <v>69</v>
       </c>
@@ -19849,7 +19853,7 @@
       </c>
       <c r="H1" s="104"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>86</v>
       </c>
@@ -19873,7 +19877,7 @@
       </c>
       <c r="H2" s="98"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="35" t="s">
         <v>268</v>
       </c>
@@ -19891,7 +19895,7 @@
       </c>
       <c r="H3" s="142"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>87</v>
       </c>
@@ -19915,7 +19919,7 @@
       </c>
       <c r="H4" s="142"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
         <v>268</v>
@@ -19934,7 +19938,7 @@
       </c>
       <c r="H5" s="98"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>88</v>
       </c>
@@ -19958,7 +19962,7 @@
       </c>
       <c r="H6" s="98"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
         <v>268</v>
@@ -19992,24 +19996,24 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>204</v>
       </c>
@@ -20030,7 +20034,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.6640625" style="35" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" style="35" customWidth="1"/>
@@ -20039,7 +20043,7 @@
     <col min="6" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>163</v>
       </c>
@@ -20056,7 +20060,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8">
+    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>158</v>
       </c>
@@ -20074,7 +20078,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.8">
+    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>157</v>
       </c>
@@ -20092,7 +20096,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.8">
+    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>156</v>
       </c>
@@ -20110,7 +20114,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.8">
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>155</v>
       </c>
@@ -20128,7 +20132,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.8">
+    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>154</v>
       </c>
@@ -20146,7 +20150,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.8">
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>153</v>
       </c>
@@ -20164,7 +20168,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.8">
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
         <v>152</v>
       </c>
@@ -20182,7 +20186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.8">
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
         <v>151</v>
       </c>
@@ -20200,7 +20204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.8">
+    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
         <v>150</v>
       </c>
@@ -20218,7 +20222,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" s="36"/>
     </row>
   </sheetData>
@@ -20239,14 +20243,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.109375" customWidth="1"/>
     <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2020) attributable to cause</v>
@@ -20257,7 +20261,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>209</v>
       </c>
@@ -20272,55 +20276,55 @@
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
         <v>73</v>
       </c>
       <c r="C3" s="76"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="76"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="76"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="76"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="24" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="76"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="76"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="76"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="76"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="32" t="s">
         <v>129</v>
       </c>
@@ -20331,7 +20335,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="32"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -20340,7 +20344,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -20361,7 +20365,7 @@
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
         <v>71</v>
       </c>
@@ -20370,7 +20374,7 @@
       <c r="E14" s="76"/>
       <c r="F14" s="76"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
         <v>16</v>
       </c>
@@ -20379,7 +20383,7 @@
       <c r="E15" s="76"/>
       <c r="F15" s="76"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="24" t="s">
         <v>17</v>
       </c>
@@ -20388,7 +20392,7 @@
       <c r="E16" s="76"/>
       <c r="F16" s="76"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="24" t="s">
         <v>18</v>
       </c>
@@ -20397,7 +20401,7 @@
       <c r="E17" s="76"/>
       <c r="F17" s="76"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
         <v>19</v>
       </c>
@@ -20406,7 +20410,7 @@
       <c r="E18" s="76"/>
       <c r="F18" s="76"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
         <v>20</v>
       </c>
@@ -20415,7 +20419,7 @@
       <c r="E19" s="76"/>
       <c r="F19" s="76"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
         <v>21</v>
       </c>
@@ -20424,7 +20428,7 @@
       <c r="E20" s="76"/>
       <c r="F20" s="76"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="24" t="s">
         <v>22</v>
       </c>
@@ -20433,7 +20437,7 @@
       <c r="E21" s="76"/>
       <c r="F21" s="76"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="24" t="s">
         <v>23</v>
       </c>
@@ -20442,7 +20446,7 @@
       <c r="E22" s="76"/>
       <c r="F22" s="76"/>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="32" t="s">
         <v>129</v>
       </c>
@@ -20465,7 +20469,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="32"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -20474,7 +20478,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -20490,61 +20494,61 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="24" t="s">
         <v>38</v>
       </c>
       <c r="C26" s="76"/>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="24" t="s">
         <v>39</v>
       </c>
       <c r="C27" s="76"/>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="24" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="76"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="24" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="76"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="24" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="76"/>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="24" t="s">
         <v>43</v>
       </c>
       <c r="C31" s="76"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="24" t="s">
         <v>44</v>
       </c>
       <c r="C32" s="76"/>
     </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1">
+    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="24" t="s">
         <v>45</v>
       </c>
       <c r="C33" s="76"/>
     </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1">
+    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="24" t="s">
         <v>46</v>
       </c>
       <c r="C34" s="76"/>
     </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1">
+    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="32" t="s">
         <v>129</v>
       </c>
@@ -20572,13 +20576,13 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2020)</v>
@@ -20602,7 +20606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>115</v>
       </c>
@@ -20630,7 +20634,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
         <v>118</v>
@@ -20656,7 +20660,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
         <v>116</v>
@@ -20667,7 +20671,7 @@
       <c r="F4" s="78"/>
       <c r="G4" s="78"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
         <v>119</v>
@@ -20678,7 +20682,7 @@
       <c r="F5" s="78"/>
       <c r="G5" s="78"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -20686,7 +20690,7 @@
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -20694,7 +20698,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>114</v>
       </c>
@@ -20722,7 +20726,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>121</v>
       </c>
@@ -20747,7 +20751,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>122</v>
       </c>
@@ -20757,7 +20761,7 @@
       <c r="F10" s="78"/>
       <c r="G10" s="78"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>123</v>
       </c>
@@ -20767,7 +20771,7 @@
       <c r="F11" s="78"/>
       <c r="G11" s="78"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -20781,7 +20785,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1">
+    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>70</v>
       </c>
@@ -20825,7 +20829,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>131</v>
       </c>
@@ -20843,7 +20847,7 @@
       <c r="N14" s="80"/>
       <c r="O14" s="80"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
         <v>68</v>
       </c>
@@ -20900,14 +20904,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1">
+    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -20933,13 +20937,13 @@
       <selection activeCell="C2" sqref="C2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.77734375" customWidth="1"/>
     <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2020)</v>
@@ -20963,7 +20967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -20976,7 +20980,7 @@
       <c r="F2" s="78"/>
       <c r="G2" s="78"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="43" t="s">
         <v>167</v>
       </c>
@@ -20986,7 +20990,7 @@
       <c r="F3" s="78"/>
       <c r="G3" s="78"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="43" t="s">
         <v>168</v>
       </c>
@@ -20996,7 +21000,7 @@
       <c r="F4" s="78"/>
       <c r="G4" s="78"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="43" t="s">
         <v>169</v>
       </c>
@@ -21034,17 +21038,17 @@
   </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
     <col min="2" max="2" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -21064,7 +21068,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>139</v>
       </c>
@@ -21084,10 +21088,10 @@
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -21107,10 +21111,10 @@
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -21130,7 +21134,7 @@
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
@@ -21147,7 +21151,7 @@
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>144</v>
       </c>
@@ -21164,7 +21168,7 @@
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -21184,7 +21188,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="34" t="s">
         <v>146</v>
       </c>
@@ -21201,7 +21205,7 @@
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>74</v>
       </c>
@@ -21221,7 +21225,7 @@
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>170</v>
       </c>
@@ -21255,7 +21259,7 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
     <col min="2" max="2" width="19.109375" style="35" customWidth="1"/>
@@ -21263,7 +21267,7 @@
     <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>180</v>
       </c>
@@ -21280,7 +21284,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
         <v>175</v>
       </c>
@@ -21294,7 +21298,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
         <v>1</v>
@@ -21308,7 +21312,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
         <v>2</v>
@@ -21322,7 +21326,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
         <v>3</v>
@@ -21334,7 +21338,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
         <v>4</v>
@@ -21346,7 +21350,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
         <v>172</v>
@@ -21355,7 +21359,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="81"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="51" t="s">
         <v>174</v>
       </c>
@@ -21366,7 +21370,7 @@
       <c r="D9" s="81"/>
       <c r="E9" s="59"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
         <v>1</v>
@@ -21375,7 +21379,7 @@
       <c r="D10" s="81"/>
       <c r="E10" s="58"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
         <v>2</v>
@@ -21384,7 +21388,7 @@
       <c r="D11" s="81"/>
       <c r="E11" s="58"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
         <v>3</v>
@@ -21395,7 +21399,7 @@
       </c>
       <c r="E12" s="58"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
         <v>4</v>
@@ -21406,7 +21410,7 @@
       </c>
       <c r="E13" s="58"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
         <v>172</v>
@@ -21415,7 +21419,7 @@
       <c r="D14" s="44"/>
       <c r="E14" s="81"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>173</v>
       </c>
@@ -21429,7 +21433,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
         <v>1</v>
@@ -21441,7 +21445,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
         <v>2</v>
@@ -21453,7 +21457,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
         <v>3</v>
@@ -21465,7 +21469,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
         <v>4</v>
@@ -21477,7 +21481,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
         <v>172</v>
@@ -21506,7 +21510,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.77734375" customWidth="1"/>
@@ -21514,7 +21518,7 @@
     <col min="4" max="4" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
         <v>164</v>
       </c>
@@ -21528,7 +21532,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
         <v>67</v>
       </c>
@@ -21542,7 +21546,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="63" t="s">
         <v>185</v>
       </c>
@@ -21569,11 +21573,11 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView zoomScale="106" workbookViewId="0">
-      <selection activeCell="D39" sqref="D2:D39"/>
+    <sheetView topLeftCell="A13" zoomScale="106" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="53" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
@@ -21583,7 +21587,7 @@
     <col min="6" max="16384" width="14.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.4">
+    <row r="1" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>69</v>
       </c>
@@ -21601,7 +21605,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>29</v>
       </c>
@@ -21618,7 +21622,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>86</v>
       </c>
@@ -21635,7 +21639,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
         <v>61</v>
       </c>
@@ -21652,7 +21656,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
         <v>149</v>
       </c>
@@ -21669,7 +21673,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
         <v>197</v>
       </c>
@@ -21686,7 +21690,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
         <v>63</v>
       </c>
@@ -21703,7 +21707,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
         <v>64</v>
       </c>
@@ -21720,7 +21724,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>62</v>
       </c>
@@ -21737,7 +21741,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
         <v>190</v>
       </c>
@@ -21754,7 +21758,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="61" t="s">
         <v>207</v>
       </c>
@@ -21771,7 +21775,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="61" t="s">
         <v>191</v>
       </c>
@@ -21788,7 +21792,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="61" t="s">
         <v>192</v>
       </c>
@@ -21805,7 +21809,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>189</v>
       </c>
@@ -21822,7 +21826,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>206</v>
       </c>
@@ -21839,7 +21843,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
         <v>57</v>
       </c>
@@ -21856,7 +21860,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
         <v>47</v>
       </c>
@@ -21873,7 +21877,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="53" t="s">
         <v>175</v>
       </c>
@@ -21890,7 +21894,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
         <v>174</v>
       </c>
@@ -21898,6 +21902,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="85">
+        <f>(1-food_insecure)*0.95</f>
         <v>0.95</v>
       </c>
       <c r="D19" s="86">
@@ -21907,7 +21912,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="53" t="s">
         <v>173</v>
       </c>
@@ -21924,7 +21929,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
         <v>196</v>
       </c>
@@ -21941,7 +21946,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="53" t="s">
         <v>136</v>
       </c>
@@ -21958,7 +21963,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
         <v>34</v>
       </c>
@@ -21975,7 +21980,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="53" t="s">
         <v>88</v>
       </c>
@@ -21992,7 +21997,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
         <v>87</v>
       </c>
@@ -22009,7 +22014,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="53" t="s">
         <v>137</v>
       </c>
@@ -22026,7 +22031,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
         <v>59</v>
       </c>
@@ -22043,7 +22048,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="53" t="s">
         <v>84</v>
       </c>
@@ -22060,7 +22065,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="53" t="s">
         <v>58</v>
       </c>
@@ -22077,7 +22082,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="53" t="s">
         <v>67</v>
       </c>
@@ -22094,7 +22099,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
         <v>185</v>
       </c>
@@ -22111,7 +22116,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="53" t="s">
         <v>28</v>
       </c>
@@ -22128,7 +22133,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
         <v>83</v>
       </c>
@@ -22145,7 +22150,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="53" t="s">
         <v>82</v>
       </c>
@@ -22162,7 +22167,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="53" t="s">
         <v>81</v>
       </c>
@@ -22179,7 +22184,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="53" t="s">
         <v>79</v>
       </c>
@@ -22196,7 +22201,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1">
+    <row r="37" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="53" t="s">
         <v>80</v>
       </c>
@@ -22214,7 +22219,7 @@
       </c>
       <c r="F37" s="35"/>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="53" t="s">
         <v>85</v>
       </c>
@@ -22231,7 +22236,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
         <v>60</v>
       </c>
@@ -22248,7 +22253,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1">
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F40" s="36"/>
     </row>
   </sheetData>

--- a/analyses/inputs/template2019.xlsx
+++ b/analyses/inputs/template2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6025CA60-6009-4052-A831-A196EA5DCB8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A269050-FFEB-484A-AB44-2206515B77D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17196" yWindow="-13068" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="9" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12465" yWindow="-13875" windowWidth="23250" windowHeight="12570" tabRatio="961" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="272">
   <si>
     <t>year</t>
   </si>
@@ -6785,8 +6785,8 @@
   </sheetPr>
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6841,7 +6841,9 @@
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
+      <c r="A10" s="48" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
@@ -11714,7 +11716,7 @@
   </sheetPr>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
@@ -12825,12 +12827,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -12840,6 +12836,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/analyses/inputs/template2019.xlsx
+++ b/analyses/inputs/template2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A269050-FFEB-484A-AB44-2206515B77D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F80BD5-F433-4BA3-9A2A-1EC89FD9B428}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12465" yWindow="-13875" windowWidth="23250" windowHeight="12570" tabRatio="961" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17196" yWindow="-13068" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="16" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -6785,8 +6785,8 @@
   </sheetPr>
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11716,7 +11716,7 @@
   </sheetPr>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
@@ -11832,8 +11832,7 @@
         <v>178</v>
       </c>
       <c r="D5" s="105">
-        <f>5.16</f>
-        <v>5.16</v>
+        <v>2.17</v>
       </c>
       <c r="E5" s="105">
         <v>1</v>
@@ -11854,7 +11853,7 @@
         <v>177</v>
       </c>
       <c r="D6" s="105">
-        <v>5.16</v>
+        <v>2.17</v>
       </c>
       <c r="E6" s="105">
         <v>1</v>
@@ -11901,7 +11900,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="105">
-        <v>5.16</v>
+        <v>2.48</v>
       </c>
       <c r="F8" s="105">
         <v>1</v>
@@ -11922,7 +11921,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="105">
-        <v>5.16</v>
+        <v>2.48</v>
       </c>
       <c r="F9" s="105">
         <v>1</v>
@@ -12327,7 +12326,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="105">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="G28" s="105">
         <v>1</v>
@@ -12348,7 +12347,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="105">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="G29" s="105">
         <v>1</v>
@@ -12395,7 +12394,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="105">
-        <v>0.89</v>
+        <v>0.77</v>
       </c>
       <c r="H31" s="105">
         <v>1</v>
@@ -12416,7 +12415,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="105">
-        <v>0.89</v>
+        <v>0.77</v>
       </c>
       <c r="H32" s="105">
         <v>1</v>
@@ -12827,6 +12826,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -12836,12 +12841,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -17112,7 +17111,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -17230,10 +17229,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="121">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F7" s="121">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="G7" s="121">
         <v>1</v>
@@ -18597,8 +18596,8 @@
   </sheetPr>
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -18812,13 +18811,13 @@
         <v>0</v>
       </c>
       <c r="F9" s="121">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G9" s="121">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="H9" s="121">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -18832,10 +18831,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="121">
-        <v>0.25970149253731345</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G10" s="121">
-        <v>0.25970149253731345</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H10" s="121">
         <v>0</v>
@@ -18855,13 +18854,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="121">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G11" s="121">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="H11" s="121">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -18875,10 +18874,10 @@
         <v>0</v>
       </c>
       <c r="F12" s="121">
-        <v>0.25970149253731345</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G12" s="121">
-        <v>0.25970149253731345</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H12" s="121">
         <v>0</v>

--- a/analyses/inputs/template2019.xlsx
+++ b/analyses/inputs/template2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F80BD5-F433-4BA3-9A2A-1EC89FD9B428}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B1BE17-D95F-4D20-9854-5E69B7B36496}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17196" yWindow="-13068" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="16" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7320" yWindow="-18270" windowWidth="29040" windowHeight="17640" tabRatio="961" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="272">
   <si>
     <t>year</t>
   </si>
@@ -6203,7 +6203,7 @@
   <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6606,8 +6606,8 @@
   </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6675,8 +6675,12 @@
       <c r="C6" s="87"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="89"/>
-      <c r="B7" s="87"/>
+      <c r="A7" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="87" t="s">
+        <v>58</v>
+      </c>
       <c r="C7" s="87"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -7000,7 +7004,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7291,10 +7295,11 @@
         <v>196</v>
       </c>
       <c r="C7" s="96">
-        <v>1</v>
+        <f>frac_children_health_facility</f>
+        <v>0</v>
       </c>
       <c r="D7" s="96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="96">
         <v>0</v>
@@ -8813,7 +8818,7 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:G7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8975,7 +8980,8 @@
         <v>196</v>
       </c>
       <c r="C4" s="93">
-        <v>1</v>
+        <f>frac_children_health_facility</f>
+        <v>0</v>
       </c>
       <c r="D4" s="93">
         <v>0</v>
@@ -11716,7 +11722,7 @@
   </sheetPr>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
@@ -12826,12 +12832,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -12841,6 +12841,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -13251,7 +13257,7 @@
   </sheetPr>
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -18539,16 +18545,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="121">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="E3" s="121">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="F3" s="121">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="G3" s="121">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -18596,8 +18602,8 @@
   </sheetPr>
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:H12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -18722,13 +18728,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="121">
-        <v>0.33500000000000002</v>
+        <f>food_insecure</f>
+        <v>0</v>
       </c>
       <c r="G5" s="121">
-        <v>0.33500000000000002</v>
+        <f>food_insecure</f>
+        <v>0</v>
       </c>
       <c r="H5" s="121">
-        <v>0.33500000000000002</v>
+        <f>food_insecure</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -18742,13 +18751,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="121">
-        <v>0.25970149253731345</v>
+        <f>0.085*2.6</f>
+        <v>0.22100000000000003</v>
       </c>
       <c r="G6" s="121">
-        <v>0.25970149253731345</v>
+        <f>0.085*2.6</f>
+        <v>0.22100000000000003</v>
       </c>
       <c r="H6" s="121">
-        <v>0</v>
+        <f>0.085*2.6</f>
+        <v>0.22100000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -18765,13 +18777,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="121">
-        <v>0.33500000000000002</v>
+        <f>food_insecure</f>
+        <v>0</v>
       </c>
       <c r="G7" s="121">
-        <v>0.33500000000000002</v>
+        <f>food_insecure</f>
+        <v>0</v>
       </c>
       <c r="H7" s="121">
-        <v>0.33500000000000002</v>
+        <f>food_insecure</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -18785,13 +18800,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="121">
-        <v>0.25970149253731345</v>
+        <f>0.085*2.6</f>
+        <v>0.22100000000000003</v>
       </c>
       <c r="G8" s="121">
-        <v>0.25970149253731345</v>
+        <f>0.085*2.6</f>
+        <v>0.22100000000000003</v>
       </c>
       <c r="H8" s="121">
-        <v>0</v>
+        <f>0.085*2.6</f>
+        <v>0.22100000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -19790,7 +19808,7 @@
         <v>268</v>
       </c>
       <c r="D53" s="121">
-        <v>0.88</v>
+        <v>0.49</v>
       </c>
       <c r="E53" s="121">
         <v>0</v>
@@ -21575,7 +21593,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="106" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21955,7 +21973,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="85">
-        <v>0.95</v>
+        <v>0.2</v>
       </c>
       <c r="D22" s="86">
         <v>50</v>

--- a/analyses/inputs/template2019.xlsx
+++ b/analyses/inputs/template2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B1BE17-D95F-4D20-9854-5E69B7B36496}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E83EC2-DAB5-4FBD-ACED-8A3FA4CA7793}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7320" yWindow="-18270" windowWidth="29040" windowHeight="17640" tabRatio="961" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,7 +406,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="272">
   <si>
     <t>year</t>
   </si>
@@ -6607,7 +6607,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6675,12 +6675,8 @@
       <c r="C6" s="87"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="87" t="s">
-        <v>58</v>
-      </c>
+      <c r="A7" s="89"/>
+      <c r="B7" s="87"/>
       <c r="C7" s="87"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -12832,6 +12828,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -12841,12 +12843,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
